--- a/Calculos.xlsx
+++ b/Calculos.xlsx
@@ -861,8 +861,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:R50"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="I1" workbookViewId="0">
-      <selection activeCell="N23" sqref="N23"/>
+    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
+      <selection activeCell="N18" sqref="N18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4"/>
@@ -1022,9 +1022,7 @@
       <c r="M3" s="9" t="s">
         <v>2</v>
       </c>
-      <c r="N3" s="3">
-        <v>100</v>
-      </c>
+      <c r="N3" s="3"/>
       <c r="O3" s="9"/>
       <c r="P3" s="3">
         <v>220</v>
@@ -1072,9 +1070,7 @@
       <c r="M4" s="9" t="s">
         <v>5</v>
       </c>
-      <c r="N4" s="3">
-        <v>50</v>
-      </c>
+      <c r="N4" s="3"/>
       <c r="O4" s="9" t="s">
         <v>3</v>
       </c>
@@ -1159,7 +1155,9 @@
       <c r="K6" s="9"/>
       <c r="L6" s="3"/>
       <c r="M6" s="9"/>
-      <c r="N6" s="3"/>
+      <c r="N6" s="3">
+        <v>4000</v>
+      </c>
       <c r="O6" s="9"/>
       <c r="P6" s="3"/>
       <c r="Q6" s="9"/>
@@ -1217,7 +1215,10 @@
         <v>170</v>
       </c>
       <c r="I8" s="9"/>
-      <c r="J8" s="3"/>
+      <c r="J8" s="3">
+        <f>-100</f>
+        <v>-100</v>
+      </c>
       <c r="K8" s="9"/>
       <c r="L8" s="3"/>
       <c r="M8" s="9"/>
@@ -1386,7 +1387,7 @@
       </c>
       <c r="J14" s="12">
         <f>SUM(J2:J13)</f>
-        <v>1774</v>
+        <v>1674</v>
       </c>
       <c r="K14" s="8" t="s">
         <v>6</v>
@@ -1400,7 +1401,7 @@
       </c>
       <c r="N14" s="12">
         <f>SUM(N2:N13)</f>
-        <v>150</v>
+        <v>4000</v>
       </c>
       <c r="O14" s="8" t="s">
         <v>6</v>
@@ -1451,7 +1452,7 @@
       </c>
       <c r="J15" s="11">
         <f>I2-J14</f>
-        <v>226</v>
+        <v>326</v>
       </c>
       <c r="K15" s="8" t="s">
         <v>7</v>
@@ -1465,7 +1466,7 @@
       </c>
       <c r="N15" s="11">
         <f>M2-N14</f>
-        <v>1850</v>
+        <v>-2000</v>
       </c>
       <c r="O15" s="8" t="s">
         <v>7</v>
@@ -1516,35 +1517,35 @@
       </c>
       <c r="J16" s="11">
         <f>H16+J15</f>
-        <v>250.00000000000068</v>
+        <v>350.00000000000068</v>
       </c>
       <c r="K16" s="8" t="s">
         <v>16</v>
       </c>
       <c r="L16" s="11">
         <f>J16+L15</f>
-        <v>2250.0000000000009</v>
+        <v>2350.0000000000009</v>
       </c>
       <c r="M16" s="8" t="s">
         <v>16</v>
       </c>
       <c r="N16" s="11">
         <f>L16+N15</f>
-        <v>4100.0000000000009</v>
+        <v>350.00000000000091</v>
       </c>
       <c r="O16" s="8" t="s">
         <v>16</v>
       </c>
       <c r="P16" s="11">
         <f>N16+P15</f>
-        <v>5080.0000000000009</v>
+        <v>1330.0000000000009</v>
       </c>
       <c r="Q16" s="8" t="s">
         <v>16</v>
       </c>
       <c r="R16" s="11">
         <f>P16+R15</f>
-        <v>6430.0000000000009</v>
+        <v>2680.0000000000009</v>
       </c>
     </row>
     <row r="17" spans="1:18" ht="15.6" thickTop="1" thickBot="1">
@@ -1567,7 +1568,7 @@
         <v>19</v>
       </c>
       <c r="N17" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="P17" t="s">
         <v>20</v>
@@ -1589,14 +1590,14 @@
       </c>
       <c r="J18" s="22">
         <f>H15+J15</f>
-        <v>130.00000000000045</v>
+        <v>230.00000000000045</v>
       </c>
       <c r="M18" s="8" t="s">
         <v>15</v>
       </c>
       <c r="N18" s="5">
         <f>L15+N15</f>
-        <v>3850</v>
+        <v>0</v>
       </c>
       <c r="Q18" s="8" t="s">
         <v>15</v>
@@ -2374,56 +2375,56 @@
       </c>
       <c r="B47" s="11">
         <f>R16+B46</f>
-        <v>6570.0000000000009</v>
+        <v>2820.0000000000009</v>
       </c>
       <c r="C47" s="8" t="s">
         <v>16</v>
       </c>
       <c r="D47" s="11">
         <f>B47+D46</f>
-        <v>7920.0000000000009</v>
+        <v>4170.0000000000009</v>
       </c>
       <c r="E47" s="8" t="s">
         <v>16</v>
       </c>
       <c r="F47" s="11">
         <f>D47+F46</f>
-        <v>8060.0000000000009</v>
+        <v>4310.0000000000009</v>
       </c>
       <c r="G47" s="8" t="s">
         <v>16</v>
       </c>
       <c r="H47" s="11">
         <f>F47+H46</f>
-        <v>9610</v>
+        <v>5860.0000000000009</v>
       </c>
       <c r="I47" s="8" t="s">
         <v>16</v>
       </c>
       <c r="J47" s="11">
         <f>H47+J46</f>
-        <v>9550</v>
+        <v>5800.0000000000009</v>
       </c>
       <c r="K47" s="8" t="s">
         <v>16</v>
       </c>
       <c r="L47" s="11">
         <f>J47+L46</f>
-        <v>11100</v>
+        <v>7350.0000000000009</v>
       </c>
       <c r="M47" s="8" t="s">
         <v>16</v>
       </c>
       <c r="N47" s="11">
         <f>L47+N46</f>
-        <v>11040</v>
+        <v>7290.0000000000009</v>
       </c>
       <c r="O47" s="8" t="s">
         <v>16</v>
       </c>
       <c r="P47" s="11">
         <f>N47+P46</f>
-        <v>12590</v>
+        <v>8840</v>
       </c>
     </row>
     <row r="48" spans="1:16" ht="15.6" thickTop="1" thickBot="1">

--- a/Calculos.xlsx
+++ b/Calculos.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="170" uniqueCount="55">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="163" uniqueCount="49">
   <si>
     <t>Oct</t>
   </si>
@@ -120,54 +120,15 @@
     <t>alumerzo</t>
   </si>
   <si>
-    <t>precio $</t>
-  </si>
-  <si>
-    <t>precio Q</t>
-  </si>
-  <si>
-    <t>diferencia</t>
-  </si>
-  <si>
-    <t>diferencia %</t>
-  </si>
-  <si>
-    <t>conversion</t>
-  </si>
-  <si>
-    <t>amazon</t>
-  </si>
-  <si>
     <t>Cuenta Enero 1</t>
   </si>
   <si>
-    <t>GPU</t>
-  </si>
-  <si>
-    <t>Tabla Prediccion Precio</t>
-  </si>
-  <si>
-    <t>Envio</t>
-  </si>
-  <si>
-    <t>2080TI</t>
-  </si>
-  <si>
-    <t>2060 real</t>
-  </si>
-  <si>
     <t>Ajuste</t>
   </si>
   <si>
     <t>Fichas</t>
   </si>
   <si>
-    <t>2080TI real</t>
-  </si>
-  <si>
-    <t>1070ti</t>
-  </si>
-  <si>
     <t>Marzo</t>
   </si>
   <si>
@@ -181,6 +142,27 @@
   </si>
   <si>
     <t>dat</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Pendientes </t>
+  </si>
+  <si>
+    <t>IVA</t>
+  </si>
+  <si>
+    <t>Gas</t>
+  </si>
+  <si>
+    <t>Desc</t>
+  </si>
+  <si>
+    <t>Tarjeta</t>
+  </si>
+  <si>
+    <t>Total</t>
+  </si>
+  <si>
+    <t>pendientes</t>
   </si>
 </sst>
 </file>
@@ -191,7 +173,7 @@
     <numFmt numFmtId="44" formatCode="_-* #,##0.00\ &quot;€&quot;_-;\-* #,##0.00\ &quot;€&quot;_-;_-* &quot;-&quot;??\ &quot;€&quot;_-;_-@_-"/>
     <numFmt numFmtId="164" formatCode="_-[$Q-100A]* #,##0.00_-;\-[$Q-100A]* #,##0.00_-;_-[$Q-100A]* &quot;-&quot;??_-;_-@_-"/>
   </numFmts>
-  <fonts count="12">
+  <fonts count="13">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -280,8 +262,15 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="10">
+  <fills count="9">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -323,13 +312,8 @@
         <fgColor rgb="FFFFCC99"/>
       </patternFill>
     </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-      </patternFill>
-    </fill>
   </fills>
-  <borders count="10">
+  <borders count="8">
     <border>
       <left/>
       <right/>
@@ -402,44 +386,18 @@
       <left style="thin">
         <color rgb="FFB2B2B2"/>
       </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
+      <right/>
+      <top/>
+      <bottom/>
       <diagonal/>
     </border>
     <border>
       <left/>
       <right/>
       <top/>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
       </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right/>
-      <top/>
-      <bottom/>
       <diagonal/>
     </border>
   </borders>
@@ -455,9 +413,9 @@
     <xf numFmtId="0" fontId="9" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="44" fontId="10" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="11" fillId="8" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="10" fillId="9" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="24">
+  <cellXfs count="20">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="2"/>
@@ -475,29 +433,23 @@
     <xf numFmtId="164" fontId="2" fillId="3" borderId="0" xfId="9" applyNumberFormat="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="3" fillId="4" borderId="5" xfId="3" applyBorder="1"/>
     <xf numFmtId="0" fontId="11" fillId="8" borderId="1" xfId="10"/>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="6" xfId="11" applyFont="1"/>
     <xf numFmtId="164" fontId="11" fillId="8" borderId="1" xfId="10" applyNumberFormat="1"/>
     <xf numFmtId="164" fontId="3" fillId="4" borderId="1" xfId="3" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="8" xfId="11" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="9" xfId="11" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="6" fillId="5" borderId="0" xfId="5" applyBorder="1"/>
     <xf numFmtId="164" fontId="7" fillId="6" borderId="3" xfId="6" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="6" fillId="5" borderId="7" xfId="5" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="6" xfId="5" applyBorder="1"/>
+    <xf numFmtId="0" fontId="12" fillId="5" borderId="7" xfId="11" applyFill="1"/>
   </cellXfs>
   <cellStyles count="12">
     <cellStyle name="Buena" xfId="1" builtinId="26"/>
     <cellStyle name="Cálculo" xfId="3" builtinId="22"/>
     <cellStyle name="Celda de comprobación" xfId="6" builtinId="23"/>
+    <cellStyle name="Celda vinculada" xfId="11" builtinId="24"/>
     <cellStyle name="Énfasis6" xfId="8" builtinId="49"/>
     <cellStyle name="Entrada" xfId="10" builtinId="20"/>
     <cellStyle name="Incorrecto" xfId="2" builtinId="27"/>
     <cellStyle name="Moneda" xfId="9" builtinId="4"/>
     <cellStyle name="Neutral" xfId="5" builtinId="28"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <cellStyle name="Notas" xfId="11" builtinId="10"/>
     <cellStyle name="Título 3" xfId="4" builtinId="18"/>
     <cellStyle name="Total" xfId="7" builtinId="25"/>
   </cellStyles>
@@ -861,8 +813,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:R50"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
-      <selection activeCell="N18" sqref="N18"/>
+    <sheetView tabSelected="1" topLeftCell="B31" workbookViewId="0">
+      <selection activeCell="B47" sqref="B47"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4"/>
@@ -1014,7 +966,7 @@
         <v>400</v>
       </c>
       <c r="K3" s="9" t="s">
-        <v>46</v>
+        <v>35</v>
       </c>
       <c r="L3" s="3">
         <v>20</v>
@@ -1022,10 +974,14 @@
       <c r="M3" s="9" t="s">
         <v>2</v>
       </c>
-      <c r="N3" s="3"/>
-      <c r="O3" s="9"/>
+      <c r="N3" s="3">
+        <v>300</v>
+      </c>
+      <c r="O3" s="9" t="s">
+        <v>3</v>
+      </c>
       <c r="P3" s="3">
-        <v>220</v>
+        <v>500</v>
       </c>
       <c r="Q3" s="9" t="s">
         <v>2</v>
@@ -1072,10 +1028,11 @@
       </c>
       <c r="N4" s="3"/>
       <c r="O4" s="9" t="s">
-        <v>3</v>
+        <v>48</v>
       </c>
       <c r="P4" s="3">
-        <v>500</v>
+        <f>N29</f>
+        <v>370</v>
       </c>
       <c r="Q4" s="9" t="s">
         <v>5</v>
@@ -1122,9 +1079,7 @@
         <v>-220</v>
       </c>
       <c r="O5" s="9"/>
-      <c r="P5" s="3">
-        <v>300</v>
-      </c>
+      <c r="P5" s="3"/>
       <c r="Q5" s="9"/>
       <c r="R5" s="3"/>
     </row>
@@ -1175,13 +1130,13 @@
       </c>
       <c r="F7" s="3"/>
       <c r="G7" s="9" t="s">
-        <v>46</v>
+        <v>35</v>
       </c>
       <c r="H7" s="3">
         <v>-19.3</v>
       </c>
       <c r="I7" s="9" t="s">
-        <v>47</v>
+        <v>36</v>
       </c>
       <c r="J7" s="3">
         <v>4</v>
@@ -1401,14 +1356,14 @@
       </c>
       <c r="N14" s="12">
         <f>SUM(N2:N13)</f>
-        <v>4000</v>
+        <v>4300</v>
       </c>
       <c r="O14" s="8" t="s">
         <v>6</v>
       </c>
       <c r="P14" s="12">
         <f>SUM(P2:P13)</f>
-        <v>1020</v>
+        <v>870</v>
       </c>
       <c r="Q14" s="8" t="s">
         <v>6</v>
@@ -1466,14 +1421,14 @@
       </c>
       <c r="N15" s="11">
         <f>M2-N14</f>
-        <v>-2000</v>
+        <v>-2300</v>
       </c>
       <c r="O15" s="8" t="s">
         <v>7</v>
       </c>
       <c r="P15" s="11">
         <f>O2-P14</f>
-        <v>980</v>
+        <v>1130</v>
       </c>
       <c r="Q15" s="8" t="s">
         <v>7</v>
@@ -1531,21 +1486,21 @@
       </c>
       <c r="N16" s="11">
         <f>L16+N15</f>
-        <v>350.00000000000091</v>
+        <v>50.000000000000909</v>
       </c>
       <c r="O16" s="8" t="s">
         <v>16</v>
       </c>
       <c r="P16" s="11">
         <f>N16+P15</f>
-        <v>1330.0000000000009</v>
+        <v>1180.0000000000009</v>
       </c>
       <c r="Q16" s="8" t="s">
         <v>16</v>
       </c>
       <c r="R16" s="11">
         <f>P16+R15</f>
-        <v>2680.0000000000009</v>
+        <v>2530.0000000000009</v>
       </c>
     </row>
     <row r="17" spans="1:18" ht="15.6" thickTop="1" thickBot="1">
@@ -1588,7 +1543,7 @@
       <c r="I18" s="8" t="s">
         <v>15</v>
       </c>
-      <c r="J18" s="22">
+      <c r="J18" s="17">
         <f>H15+J15</f>
         <v>230.00000000000045</v>
       </c>
@@ -1597,34 +1552,30 @@
       </c>
       <c r="N18" s="5">
         <f>L15+N15</f>
-        <v>0</v>
+        <v>-300</v>
       </c>
       <c r="Q18" s="8" t="s">
         <v>15</v>
       </c>
       <c r="R18" s="5">
         <f>P15+R15</f>
-        <v>2330</v>
+        <v>2480</v>
       </c>
     </row>
     <row r="19" spans="1:18" ht="15" thickTop="1"/>
-    <row r="20" spans="1:18">
+    <row r="20" spans="1:18" ht="15" thickBot="1">
       <c r="A20">
         <v>1200</v>
       </c>
       <c r="C20" s="9" t="s">
-        <v>40</v>
-      </c>
-      <c r="D20" s="23" t="s">
+        <v>34</v>
+      </c>
+      <c r="N20" s="6" t="s">
         <v>42</v>
       </c>
-      <c r="E20" s="23"/>
-      <c r="F20" s="23"/>
-      <c r="G20" s="23"/>
-      <c r="H20" s="23"/>
-      <c r="I20" s="23"/>
-      <c r="J20" s="23"/>
-      <c r="K20" s="23"/>
+      <c r="O20" s="6" t="s">
+        <v>45</v>
+      </c>
     </row>
     <row r="21" spans="1:18">
       <c r="A21">
@@ -1636,34 +1587,9 @@
       <c r="C21" s="14">
         <v>2000</v>
       </c>
-      <c r="D21" s="15" t="s">
-        <v>41</v>
-      </c>
-      <c r="E21" s="15" t="s">
-        <v>34</v>
-      </c>
-      <c r="F21" s="15" t="s">
-        <v>35</v>
-      </c>
-      <c r="G21" s="15" t="s">
-        <v>39</v>
-      </c>
-      <c r="H21" s="15" t="s">
-        <v>38</v>
-      </c>
-      <c r="I21" s="15" t="s">
-        <v>38</v>
-      </c>
-      <c r="J21" s="15" t="s">
-        <v>36</v>
-      </c>
-      <c r="K21" s="15" t="s">
-        <v>37</v>
-      </c>
-      <c r="L21" s="18" t="s">
+      <c r="O21" s="18" t="s">
         <v>43</v>
       </c>
-      <c r="M21" s="18"/>
     </row>
     <row r="22" spans="1:18">
       <c r="A22">
@@ -1672,42 +1598,12 @@
       <c r="B22" s="2">
         <v>420</v>
       </c>
-      <c r="C22" s="16">
+      <c r="C22" s="15">
         <v>100</v>
       </c>
-      <c r="D22" s="15">
-        <v>2070</v>
-      </c>
-      <c r="E22" s="4">
-        <v>600</v>
-      </c>
-      <c r="F22" s="4">
-        <v>6016</v>
-      </c>
-      <c r="G22" s="4">
-        <v>630</v>
-      </c>
-      <c r="H22" s="9">
-        <f>E22*8</f>
-        <v>4800</v>
-      </c>
-      <c r="I22" s="9">
-        <f>G22*8</f>
-        <v>5040</v>
-      </c>
-      <c r="J22" s="3">
-        <f>F22-H22</f>
-        <v>1216</v>
-      </c>
-      <c r="K22" s="3">
-        <f>J22/F22</f>
-        <v>0.20212765957446807</v>
-      </c>
-      <c r="L22" s="3">
-        <f>(G22+5)*8</f>
-        <v>5080</v>
-      </c>
-      <c r="M22" s="3"/>
+      <c r="O22" s="9" t="s">
+        <v>44</v>
+      </c>
     </row>
     <row r="23" spans="1:18">
       <c r="A23">
@@ -1719,41 +1615,19 @@
       <c r="C23" s="14">
         <v>280</v>
       </c>
-      <c r="D23" s="15">
-        <v>2060</v>
-      </c>
-      <c r="E23" s="4">
-        <v>350</v>
-      </c>
-      <c r="F23" s="2">
-        <f>F22*E23/E22</f>
-        <v>3509.3333333333335</v>
-      </c>
-      <c r="G23" s="2">
-        <f>E23*G22/E22</f>
-        <v>367.5</v>
-      </c>
-      <c r="H23" s="9">
-        <f>E23*8</f>
-        <v>2800</v>
-      </c>
-      <c r="I23" s="9">
-        <f>G23*8</f>
-        <v>2940</v>
-      </c>
-      <c r="J23" s="3">
-        <f>F23-H23</f>
-        <v>709.33333333333348</v>
-      </c>
-      <c r="K23" s="3">
-        <f>J23/F23</f>
-        <v>0.20212765957446813</v>
-      </c>
-      <c r="L23" s="3">
-        <f>(G23+5)*8</f>
-        <v>2980</v>
-      </c>
-      <c r="M23" s="3"/>
+      <c r="L23">
+        <v>50</v>
+      </c>
+      <c r="M23">
+        <v>320</v>
+      </c>
+      <c r="N23">
+        <f>K23+L23+M23</f>
+        <v>370</v>
+      </c>
+      <c r="O23" s="9" t="s">
+        <v>46</v>
+      </c>
     </row>
     <row r="24" spans="1:18">
       <c r="B24" s="2">
@@ -1763,41 +1637,7 @@
       <c r="C24" s="14">
         <v>200</v>
       </c>
-      <c r="D24" s="15" t="s">
-        <v>44</v>
-      </c>
-      <c r="E24" s="4">
-        <v>1199</v>
-      </c>
-      <c r="F24" s="2">
-        <f>F22*G24/G22</f>
-        <v>12021.973333333333</v>
-      </c>
-      <c r="G24" s="2">
-        <f>E24*G23/E23</f>
-        <v>1258.95</v>
-      </c>
-      <c r="H24" s="9">
-        <f>E24*8</f>
-        <v>9592</v>
-      </c>
-      <c r="I24" s="9">
-        <f>G24*8</f>
-        <v>10071.6</v>
-      </c>
-      <c r="J24" s="3">
-        <f>F24-H24</f>
-        <v>2429.9733333333334</v>
-      </c>
-      <c r="K24" s="3">
-        <f>J24/F24</f>
-        <v>0.2021276595744681</v>
-      </c>
-      <c r="L24" s="3">
-        <f>(G24+5)*8</f>
-        <v>10111.6</v>
-      </c>
-      <c r="M24" s="3"/>
+      <c r="O24" s="9"/>
     </row>
     <row r="25" spans="1:18">
       <c r="B25" s="2">
@@ -1806,39 +1646,7 @@
       <c r="C25" s="14">
         <v>450</v>
       </c>
-      <c r="D25" t="s">
-        <v>48</v>
-      </c>
-      <c r="E25" s="19">
-        <v>1199</v>
-      </c>
-      <c r="F25">
-        <v>11719</v>
-      </c>
-      <c r="G25">
-        <v>1390</v>
-      </c>
-      <c r="H25" s="9">
-        <f>E25*8</f>
-        <v>9592</v>
-      </c>
-      <c r="I25" s="9">
-        <f>G25*8</f>
-        <v>11120</v>
-      </c>
-      <c r="J25" s="3">
-        <f>F25-H25</f>
-        <v>2127</v>
-      </c>
-      <c r="K25" s="3">
-        <f>J25/F25</f>
-        <v>0.18150012799726939</v>
-      </c>
-      <c r="L25" s="3">
-        <f>(G25+5)*8</f>
-        <v>11160</v>
-      </c>
-      <c r="M25" s="3"/>
+      <c r="O25" s="9"/>
     </row>
     <row r="26" spans="1:18">
       <c r="B26" s="2">
@@ -1847,40 +1655,7 @@
       <c r="C26" s="14">
         <v>200</v>
       </c>
-      <c r="D26" s="20" t="s">
-        <v>45</v>
-      </c>
-      <c r="E26" s="19">
-        <v>350</v>
-      </c>
-      <c r="F26" s="2">
-        <f>F25*G26/G25</f>
-        <v>3490.4071942446044</v>
-      </c>
-      <c r="G26">
-        <v>414</v>
-      </c>
-      <c r="H26" s="21">
-        <f>E26*8</f>
-        <v>2800</v>
-      </c>
-      <c r="I26" s="9">
-        <f>G26*8</f>
-        <v>3312</v>
-      </c>
-      <c r="J26" s="3">
-        <f>F26-H26</f>
-        <v>690.4071942446044</v>
-      </c>
-      <c r="K26" s="3">
-        <f>J26/F26</f>
-        <v>0.19780133257318211</v>
-      </c>
-      <c r="L26" s="3">
-        <f>(G26+5)*8</f>
-        <v>3352</v>
-      </c>
-      <c r="M26" s="3"/>
+      <c r="O26" s="9"/>
     </row>
     <row r="27" spans="1:18">
       <c r="B27">
@@ -1888,30 +1663,29 @@
         <v>677.3</v>
       </c>
       <c r="C27" s="14"/>
-      <c r="F27">
-        <f>F22*G26/G22</f>
-        <v>3953.3714285714286</v>
-      </c>
+      <c r="O27" s="9"/>
     </row>
     <row r="28" spans="1:18">
       <c r="C28" s="14"/>
-      <c r="D28" t="s">
-        <v>49</v>
-      </c>
-      <c r="F28">
-        <v>5078</v>
-      </c>
-    </row>
-    <row r="29" spans="1:18">
+      <c r="O28" s="9"/>
+    </row>
+    <row r="29" spans="1:18" ht="15" thickBot="1">
       <c r="B29" t="s">
         <v>21</v>
       </c>
-      <c r="C29" s="17">
+      <c r="C29" s="16">
         <f>C21-SUM(C22:C28)</f>
         <v>770</v>
       </c>
-    </row>
-    <row r="30" spans="1:18">
+      <c r="N29">
+        <f>SUM(N21:N28)</f>
+        <v>370</v>
+      </c>
+      <c r="O29" s="19" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="30" spans="1:18" ht="15" thickTop="1">
       <c r="B30">
         <f>1400-B22-B23-B24-B26</f>
         <v>746.7</v>
@@ -1919,49 +1693,49 @@
     </row>
     <row r="32" spans="1:18" ht="15" thickBot="1">
       <c r="A32" s="6" t="s">
-        <v>50</v>
+        <v>37</v>
       </c>
       <c r="B32" s="6" t="s">
         <v>8</v>
       </c>
       <c r="C32" s="6" t="s">
-        <v>50</v>
+        <v>37</v>
       </c>
       <c r="D32" s="6" t="s">
         <v>9</v>
       </c>
       <c r="E32" s="6" t="s">
-        <v>51</v>
+        <v>38</v>
       </c>
       <c r="F32" s="7" t="s">
         <v>8</v>
       </c>
       <c r="G32" s="6" t="s">
-        <v>51</v>
+        <v>38</v>
       </c>
       <c r="H32" s="6" t="s">
         <v>9</v>
       </c>
       <c r="I32" s="6" t="s">
-        <v>52</v>
+        <v>39</v>
       </c>
       <c r="J32" s="7" t="s">
         <v>8</v>
       </c>
       <c r="K32" s="6" t="s">
-        <v>52</v>
+        <v>39</v>
       </c>
       <c r="L32" s="6" t="s">
         <v>9</v>
       </c>
       <c r="M32" s="6" t="s">
-        <v>53</v>
+        <v>40</v>
       </c>
       <c r="N32" s="7" t="s">
         <v>8</v>
       </c>
       <c r="O32" s="6" t="s">
-        <v>53</v>
+        <v>40</v>
       </c>
       <c r="P32" s="6" t="s">
         <v>9</v>
@@ -2065,7 +1839,7 @@
       <c r="E35" s="9"/>
       <c r="F35" s="3"/>
       <c r="G35" s="9" t="s">
-        <v>54</v>
+        <v>41</v>
       </c>
       <c r="H35" s="3">
         <v>50</v>
@@ -2073,7 +1847,7 @@
       <c r="I35" s="9"/>
       <c r="J35" s="3"/>
       <c r="K35" s="9" t="s">
-        <v>54</v>
+        <v>41</v>
       </c>
       <c r="L35" s="3">
         <v>50</v>
@@ -2081,7 +1855,7 @@
       <c r="M35" s="9"/>
       <c r="N35" s="3"/>
       <c r="O35" s="9" t="s">
-        <v>54</v>
+        <v>41</v>
       </c>
       <c r="P35" s="3">
         <v>50</v>
@@ -2375,56 +2149,56 @@
       </c>
       <c r="B47" s="11">
         <f>R16+B46</f>
-        <v>2820.0000000000009</v>
+        <v>2670.0000000000009</v>
       </c>
       <c r="C47" s="8" t="s">
         <v>16</v>
       </c>
       <c r="D47" s="11">
         <f>B47+D46</f>
-        <v>4170.0000000000009</v>
+        <v>4020.0000000000009</v>
       </c>
       <c r="E47" s="8" t="s">
         <v>16</v>
       </c>
       <c r="F47" s="11">
         <f>D47+F46</f>
-        <v>4310.0000000000009</v>
+        <v>4160.0000000000009</v>
       </c>
       <c r="G47" s="8" t="s">
         <v>16</v>
       </c>
       <c r="H47" s="11">
         <f>F47+H46</f>
-        <v>5860.0000000000009</v>
+        <v>5710.0000000000009</v>
       </c>
       <c r="I47" s="8" t="s">
         <v>16</v>
       </c>
       <c r="J47" s="11">
         <f>H47+J46</f>
-        <v>5800.0000000000009</v>
+        <v>5650.0000000000009</v>
       </c>
       <c r="K47" s="8" t="s">
         <v>16</v>
       </c>
       <c r="L47" s="11">
         <f>J47+L46</f>
-        <v>7350.0000000000009</v>
+        <v>7200.0000000000009</v>
       </c>
       <c r="M47" s="8" t="s">
         <v>16</v>
       </c>
       <c r="N47" s="11">
         <f>L47+N46</f>
-        <v>7290.0000000000009</v>
+        <v>7140.0000000000009</v>
       </c>
       <c r="O47" s="8" t="s">
         <v>16</v>
       </c>
       <c r="P47" s="11">
         <f>N47+P46</f>
-        <v>8840</v>
+        <v>8690</v>
       </c>
     </row>
     <row r="48" spans="1:16" ht="15.6" thickTop="1" thickBot="1">
@@ -2464,7 +2238,7 @@
       <c r="I49" s="8" t="s">
         <v>15</v>
       </c>
-      <c r="J49" s="22">
+      <c r="J49" s="17">
         <f>H46+J46</f>
         <v>1490</v>
       </c>
@@ -2478,9 +2252,6 @@
     </row>
     <row r="50" spans="5:14" ht="15" thickTop="1"/>
   </sheetData>
-  <mergeCells count="1">
-    <mergeCell ref="D20:K20"/>
-  </mergeCells>
   <conditionalFormatting sqref="L19">
     <cfRule type="dataBar" priority="54">
       <dataBar>

--- a/Calculos.xlsx
+++ b/Calculos.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="163" uniqueCount="49">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="259" uniqueCount="61">
   <si>
     <t>Oct</t>
   </si>
@@ -163,6 +163,42 @@
   </si>
   <si>
     <t>pendientes</t>
+  </si>
+  <si>
+    <t>mobo</t>
+  </si>
+  <si>
+    <t>cpu</t>
+  </si>
+  <si>
+    <t>psu</t>
+  </si>
+  <si>
+    <t>ram</t>
+  </si>
+  <si>
+    <t xml:space="preserve">case </t>
+  </si>
+  <si>
+    <t>total</t>
+  </si>
+  <si>
+    <t>aid</t>
+  </si>
+  <si>
+    <t>Julio</t>
+  </si>
+  <si>
+    <t>Agosto</t>
+  </si>
+  <si>
+    <t>Septiembre</t>
+  </si>
+  <si>
+    <t>Octubre</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Octubre </t>
   </si>
 </sst>
 </file>
@@ -270,7 +306,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="9">
+  <fills count="10">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -312,8 +348,13 @@
         <fgColor rgb="FFFFCC99"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="8">
+  <borders count="9">
     <border>
       <left/>
       <right/>
@@ -400,8 +441,23 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="12">
+  <cellStyleXfs count="13">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -414,8 +470,9 @@
     <xf numFmtId="44" fontId="10" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="11" fillId="8" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="9" borderId="8" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="20">
+  <cellXfs count="22">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="2"/>
@@ -438,8 +495,10 @@
     <xf numFmtId="164" fontId="7" fillId="6" borderId="3" xfId="6" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="6" fillId="5" borderId="6" xfId="5" applyBorder="1"/>
     <xf numFmtId="0" fontId="12" fillId="5" borderId="7" xfId="11" applyFill="1"/>
+    <xf numFmtId="0" fontId="6" fillId="9" borderId="8" xfId="12" applyFont="1"/>
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="1" xfId="5" applyBorder="1"/>
   </cellXfs>
-  <cellStyles count="12">
+  <cellStyles count="13">
     <cellStyle name="Buena" xfId="1" builtinId="26"/>
     <cellStyle name="Cálculo" xfId="3" builtinId="22"/>
     <cellStyle name="Celda de comprobación" xfId="6" builtinId="23"/>
@@ -450,10 +509,102 @@
     <cellStyle name="Moneda" xfId="9" builtinId="4"/>
     <cellStyle name="Neutral" xfId="5" builtinId="28"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Notas" xfId="12" builtinId="10"/>
     <cellStyle name="Título 3" xfId="4" builtinId="18"/>
     <cellStyle name="Total" xfId="7" builtinId="25"/>
   </cellStyles>
-  <dxfs count="6">
+  <dxfs count="14">
+    <dxf>
+      <font>
+        <condense val="0"/>
+        <extend val="0"/>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <condense val="0"/>
+        <extend val="0"/>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <condense val="0"/>
+        <extend val="0"/>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <condense val="0"/>
+        <extend val="0"/>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <condense val="0"/>
+        <extend val="0"/>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <condense val="0"/>
+        <extend val="0"/>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <condense val="0"/>
+        <extend val="0"/>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
     <dxf>
       <font>
         <condense val="0"/>
@@ -811,10 +962,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:R50"/>
+  <dimension ref="A1:T78"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B31" workbookViewId="0">
-      <selection activeCell="B47" sqref="B47"/>
+    <sheetView tabSelected="1" topLeftCell="D4" workbookViewId="0">
+      <selection activeCell="P5" sqref="P5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4"/>
@@ -987,7 +1138,8 @@
         <v>2</v>
       </c>
       <c r="R3" s="3">
-        <v>400</v>
+        <f>400+200-150</f>
+        <v>450</v>
       </c>
     </row>
     <row r="4" spans="1:18">
@@ -1026,7 +1178,9 @@
       <c r="M4" s="9" t="s">
         <v>5</v>
       </c>
-      <c r="N4" s="3"/>
+      <c r="N4" s="3">
+        <v>50</v>
+      </c>
       <c r="O4" s="9" t="s">
         <v>48</v>
       </c>
@@ -1143,8 +1297,12 @@
       </c>
       <c r="K7" s="9"/>
       <c r="L7" s="3"/>
-      <c r="M7" s="9"/>
-      <c r="N7" s="3"/>
+      <c r="M7" s="9" t="s">
+        <v>55</v>
+      </c>
+      <c r="N7" s="3">
+        <v>-150</v>
+      </c>
       <c r="O7" s="9"/>
       <c r="P7" s="3"/>
       <c r="Q7" s="9"/>
@@ -1356,7 +1514,7 @@
       </c>
       <c r="N14" s="12">
         <f>SUM(N2:N13)</f>
-        <v>4300</v>
+        <v>4200</v>
       </c>
       <c r="O14" s="8" t="s">
         <v>6</v>
@@ -1370,7 +1528,7 @@
       </c>
       <c r="R14" s="12">
         <f>SUM(R2:R13)</f>
-        <v>650</v>
+        <v>700</v>
       </c>
     </row>
     <row r="15" spans="1:18" ht="15.6" thickTop="1" thickBot="1">
@@ -1421,7 +1579,7 @@
       </c>
       <c r="N15" s="11">
         <f>M2-N14</f>
-        <v>-2300</v>
+        <v>-2200</v>
       </c>
       <c r="O15" s="8" t="s">
         <v>7</v>
@@ -1435,7 +1593,7 @@
       </c>
       <c r="R15" s="11">
         <f>Q2-R14</f>
-        <v>1350</v>
+        <v>1300</v>
       </c>
     </row>
     <row r="16" spans="1:18" ht="15.6" thickTop="1" thickBot="1">
@@ -1486,24 +1644,24 @@
       </c>
       <c r="N16" s="11">
         <f>L16+N15</f>
-        <v>50.000000000000909</v>
+        <v>150.00000000000091</v>
       </c>
       <c r="O16" s="8" t="s">
         <v>16</v>
       </c>
       <c r="P16" s="11">
         <f>N16+P15</f>
-        <v>1180.0000000000009</v>
+        <v>1280.0000000000009</v>
       </c>
       <c r="Q16" s="8" t="s">
         <v>16</v>
       </c>
       <c r="R16" s="11">
         <f>P16+R15</f>
-        <v>2530.0000000000009</v>
-      </c>
-    </row>
-    <row r="17" spans="1:18" ht="15.6" thickTop="1" thickBot="1">
+        <v>2580.0000000000009</v>
+      </c>
+    </row>
+    <row r="17" spans="1:20" ht="15.6" thickTop="1" thickBot="1">
       <c r="B17" t="s">
         <v>19</v>
       </c>
@@ -1532,7 +1690,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="18" spans="1:18" ht="15.6" thickTop="1" thickBot="1">
+    <row r="18" spans="1:20" ht="15.6" thickTop="1" thickBot="1">
       <c r="E18" s="8" t="s">
         <v>15</v>
       </c>
@@ -1552,18 +1710,18 @@
       </c>
       <c r="N18" s="5">
         <f>L15+N15</f>
-        <v>-300</v>
+        <v>-200</v>
       </c>
       <c r="Q18" s="8" t="s">
         <v>15</v>
       </c>
       <c r="R18" s="5">
         <f>P15+R15</f>
-        <v>2480</v>
-      </c>
-    </row>
-    <row r="19" spans="1:18" ht="15" thickTop="1"/>
-    <row r="20" spans="1:18" ht="15" thickBot="1">
+        <v>2430</v>
+      </c>
+    </row>
+    <row r="19" spans="1:20" ht="15" thickTop="1"/>
+    <row r="20" spans="1:20" ht="15" thickBot="1">
       <c r="A20">
         <v>1200</v>
       </c>
@@ -1577,7 +1735,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="21" spans="1:18">
+    <row r="21" spans="1:20">
       <c r="A21">
         <v>300</v>
       </c>
@@ -1591,7 +1749,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="22" spans="1:18">
+    <row r="22" spans="1:20">
       <c r="A22">
         <v>2199</v>
       </c>
@@ -1605,7 +1763,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="23" spans="1:18">
+    <row r="23" spans="1:20">
       <c r="A23">
         <v>0.12</v>
       </c>
@@ -1629,7 +1787,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="24" spans="1:18">
+    <row r="24" spans="1:20">
       <c r="B24" s="2">
         <f>53.3+15</f>
         <v>68.3</v>
@@ -1639,7 +1797,7 @@
       </c>
       <c r="O24" s="9"/>
     </row>
-    <row r="25" spans="1:18">
+    <row r="25" spans="1:20">
       <c r="B25" s="2">
         <v>24</v>
       </c>
@@ -1648,7 +1806,7 @@
       </c>
       <c r="O25" s="9"/>
     </row>
-    <row r="26" spans="1:18">
+    <row r="26" spans="1:20">
       <c r="B26" s="2">
         <v>50</v>
       </c>
@@ -1657,7 +1815,7 @@
       </c>
       <c r="O26" s="9"/>
     </row>
-    <row r="27" spans="1:18">
+    <row r="27" spans="1:20">
       <c r="B27">
         <f>SUM(B22:B26)</f>
         <v>677.3</v>
@@ -1665,11 +1823,11 @@
       <c r="C27" s="14"/>
       <c r="O27" s="9"/>
     </row>
-    <row r="28" spans="1:18">
+    <row r="28" spans="1:20">
       <c r="C28" s="14"/>
       <c r="O28" s="9"/>
     </row>
-    <row r="29" spans="1:18" ht="15" thickBot="1">
+    <row r="29" spans="1:20" ht="15" thickBot="1">
       <c r="B29" t="s">
         <v>21</v>
       </c>
@@ -1685,13 +1843,13 @@
         <v>47</v>
       </c>
     </row>
-    <row r="30" spans="1:18" ht="15" thickTop="1">
+    <row r="30" spans="1:20" ht="15" thickTop="1">
       <c r="B30">
         <f>1400-B22-B23-B24-B26</f>
         <v>746.7</v>
       </c>
     </row>
-    <row r="32" spans="1:18" ht="15" thickBot="1">
+    <row r="32" spans="1:20" ht="15" thickBot="1">
       <c r="A32" s="6" t="s">
         <v>37</v>
       </c>
@@ -1740,10 +1898,20 @@
       <c r="P32" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="Q32" s="6"/>
-      <c r="R32" s="7"/>
-    </row>
-    <row r="33" spans="1:16">
+      <c r="Q32" s="6" t="s">
+        <v>56</v>
+      </c>
+      <c r="R32" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="S32" s="6" t="s">
+        <v>56</v>
+      </c>
+      <c r="T32" s="6" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="33" spans="1:20">
       <c r="A33" s="10">
         <v>2000</v>
       </c>
@@ -1786,17 +1954,26 @@
         <v>2000</v>
       </c>
       <c r="P33" s="3"/>
-    </row>
-    <row r="34" spans="1:16">
+      <c r="Q33" s="10">
+        <v>2000</v>
+      </c>
+      <c r="R33" s="3">
+        <f>(O33+Q33)*0.05-P33</f>
+        <v>200</v>
+      </c>
+      <c r="S33" s="10">
+        <v>2000</v>
+      </c>
+      <c r="T33" s="3"/>
+    </row>
+    <row r="34" spans="1:20">
       <c r="A34" s="9"/>
-      <c r="B34" s="3">
-        <v>1360</v>
-      </c>
+      <c r="B34" s="3"/>
       <c r="C34" s="9"/>
       <c r="D34" s="3"/>
       <c r="E34" s="9"/>
       <c r="F34" s="3">
-        <v>1860</v>
+        <v>500</v>
       </c>
       <c r="G34" s="9" t="s">
         <v>2</v>
@@ -1806,7 +1983,7 @@
       </c>
       <c r="I34" s="9"/>
       <c r="J34" s="3">
-        <v>1860</v>
+        <v>500</v>
       </c>
       <c r="K34" s="9" t="s">
         <v>2</v>
@@ -1816,7 +1993,7 @@
       </c>
       <c r="M34" s="9"/>
       <c r="N34" s="3">
-        <v>1860</v>
+        <v>500</v>
       </c>
       <c r="O34" s="9" t="s">
         <v>2</v>
@@ -1824,8 +2001,18 @@
       <c r="P34" s="3">
         <v>400</v>
       </c>
-    </row>
-    <row r="35" spans="1:16">
+      <c r="Q34" s="9"/>
+      <c r="R34" s="3">
+        <v>500</v>
+      </c>
+      <c r="S34" s="9" t="s">
+        <v>2</v>
+      </c>
+      <c r="T34" s="3">
+        <v>400</v>
+      </c>
+    </row>
+    <row r="35" spans="1:20">
       <c r="A35" s="9"/>
       <c r="B35" s="3">
         <v>500</v>
@@ -1860,8 +2047,18 @@
       <c r="P35" s="3">
         <v>50</v>
       </c>
-    </row>
-    <row r="36" spans="1:16">
+      <c r="Q35" s="9"/>
+      <c r="R35" s="3">
+        <v>-1861</v>
+      </c>
+      <c r="S35" s="9" t="s">
+        <v>41</v>
+      </c>
+      <c r="T35" s="3">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="36" spans="1:20">
       <c r="A36" s="9"/>
       <c r="B36" s="3"/>
       <c r="C36" s="9" t="s">
@@ -1882,8 +2079,12 @@
       <c r="N36" s="3"/>
       <c r="O36" s="9"/>
       <c r="P36" s="3"/>
-    </row>
-    <row r="37" spans="1:16">
+      <c r="Q36" s="9"/>
+      <c r="R36" s="3"/>
+      <c r="S36" s="9"/>
+      <c r="T36" s="3"/>
+    </row>
+    <row r="37" spans="1:20">
       <c r="A37" s="9"/>
       <c r="B37" s="3"/>
       <c r="C37" s="9"/>
@@ -1900,8 +2101,12 @@
       <c r="N37" s="3"/>
       <c r="O37" s="9"/>
       <c r="P37" s="3"/>
-    </row>
-    <row r="38" spans="1:16">
+      <c r="Q37" s="9"/>
+      <c r="R37" s="3"/>
+      <c r="S37" s="9"/>
+      <c r="T37" s="3"/>
+    </row>
+    <row r="38" spans="1:20">
       <c r="A38" s="9"/>
       <c r="B38" s="3"/>
       <c r="C38" s="9"/>
@@ -1918,8 +2123,12 @@
       <c r="N38" s="3"/>
       <c r="O38" s="9"/>
       <c r="P38" s="3"/>
-    </row>
-    <row r="39" spans="1:16">
+      <c r="Q38" s="9"/>
+      <c r="R38" s="3"/>
+      <c r="S38" s="9"/>
+      <c r="T38" s="3"/>
+    </row>
+    <row r="39" spans="1:20">
       <c r="A39" s="9"/>
       <c r="B39" s="3"/>
       <c r="C39" s="9"/>
@@ -1936,8 +2145,12 @@
       <c r="N39" s="3"/>
       <c r="O39" s="9"/>
       <c r="P39" s="3"/>
-    </row>
-    <row r="40" spans="1:16">
+      <c r="Q39" s="9"/>
+      <c r="R39" s="3"/>
+      <c r="S39" s="9"/>
+      <c r="T39" s="3"/>
+    </row>
+    <row r="40" spans="1:20">
       <c r="A40" s="9"/>
       <c r="B40" s="3"/>
       <c r="C40" s="9"/>
@@ -1954,8 +2167,12 @@
       <c r="N40" s="3"/>
       <c r="O40" s="9"/>
       <c r="P40" s="3"/>
-    </row>
-    <row r="41" spans="1:16">
+      <c r="Q40" s="9"/>
+      <c r="R40" s="3"/>
+      <c r="S40" s="9"/>
+      <c r="T40" s="3"/>
+    </row>
+    <row r="41" spans="1:20">
       <c r="A41" s="9"/>
       <c r="B41" s="3"/>
       <c r="C41" s="9"/>
@@ -1972,8 +2189,12 @@
       <c r="N41" s="3"/>
       <c r="O41" s="9"/>
       <c r="P41" s="3"/>
-    </row>
-    <row r="42" spans="1:16">
+      <c r="Q41" s="9"/>
+      <c r="R41" s="3"/>
+      <c r="S41" s="9"/>
+      <c r="T41" s="3"/>
+    </row>
+    <row r="42" spans="1:20">
       <c r="A42" s="9"/>
       <c r="B42" s="3"/>
       <c r="C42" s="9"/>
@@ -1990,8 +2211,12 @@
       <c r="N42" s="3"/>
       <c r="O42" s="9"/>
       <c r="P42" s="3"/>
-    </row>
-    <row r="43" spans="1:16">
+      <c r="Q42" s="9"/>
+      <c r="R42" s="3"/>
+      <c r="S42" s="9"/>
+      <c r="T42" s="3"/>
+    </row>
+    <row r="43" spans="1:20">
       <c r="A43" s="9"/>
       <c r="B43" s="3"/>
       <c r="C43" s="9"/>
@@ -2008,8 +2233,12 @@
       <c r="N43" s="3"/>
       <c r="O43" s="9"/>
       <c r="P43" s="3"/>
-    </row>
-    <row r="44" spans="1:16">
+      <c r="Q43" s="9"/>
+      <c r="R43" s="3"/>
+      <c r="S43" s="9"/>
+      <c r="T43" s="3"/>
+    </row>
+    <row r="44" spans="1:20">
       <c r="A44" s="9"/>
       <c r="B44" s="3"/>
       <c r="C44" s="9"/>
@@ -2026,14 +2255,18 @@
       <c r="N44" s="3"/>
       <c r="O44" s="9"/>
       <c r="P44" s="3"/>
-    </row>
-    <row r="45" spans="1:16" ht="15" thickBot="1">
+      <c r="Q44" s="9"/>
+      <c r="R44" s="3"/>
+      <c r="S44" s="9"/>
+      <c r="T44" s="3"/>
+    </row>
+    <row r="45" spans="1:20" ht="15" thickBot="1">
       <c r="A45" s="8" t="s">
         <v>6</v>
       </c>
       <c r="B45" s="12">
         <f>SUM(B33:B44)</f>
-        <v>1860</v>
+        <v>500</v>
       </c>
       <c r="C45" s="8" t="s">
         <v>6</v>
@@ -2047,7 +2280,7 @@
       </c>
       <c r="F45" s="12">
         <f>SUM(F33:F44)</f>
-        <v>1860</v>
+        <v>500</v>
       </c>
       <c r="G45" s="8" t="s">
         <v>6</v>
@@ -2061,7 +2294,7 @@
       </c>
       <c r="J45" s="12">
         <f>SUM(J33:J44)</f>
-        <v>2060</v>
+        <v>700</v>
       </c>
       <c r="K45" s="8" t="s">
         <v>6</v>
@@ -2075,7 +2308,7 @@
       </c>
       <c r="N45" s="12">
         <f>SUM(N33:N44)</f>
-        <v>2060</v>
+        <v>700</v>
       </c>
       <c r="O45" s="8" t="s">
         <v>6</v>
@@ -2084,14 +2317,28 @@
         <f>SUM(P33:P44)</f>
         <v>450</v>
       </c>
-    </row>
-    <row r="46" spans="1:16" ht="15.6" thickTop="1" thickBot="1">
+      <c r="Q45" s="8" t="s">
+        <v>6</v>
+      </c>
+      <c r="R45" s="12">
+        <f>SUM(R33:R44)</f>
+        <v>-1161</v>
+      </c>
+      <c r="S45" s="8" t="s">
+        <v>6</v>
+      </c>
+      <c r="T45" s="12">
+        <f>SUM(T33:T44)</f>
+        <v>450</v>
+      </c>
+    </row>
+    <row r="46" spans="1:20" ht="15.6" thickTop="1" thickBot="1">
       <c r="A46" s="8" t="s">
         <v>7</v>
       </c>
       <c r="B46" s="11">
         <f>A33-B45</f>
-        <v>140</v>
+        <v>1500</v>
       </c>
       <c r="C46" s="8" t="s">
         <v>7</v>
@@ -2105,7 +2352,7 @@
       </c>
       <c r="F46" s="11">
         <f>E33-F45</f>
-        <v>140</v>
+        <v>1500</v>
       </c>
       <c r="G46" s="8" t="s">
         <v>7</v>
@@ -2119,7 +2366,7 @@
       </c>
       <c r="J46" s="11">
         <f>I33-J45</f>
-        <v>-60</v>
+        <v>1300</v>
       </c>
       <c r="K46" s="8" t="s">
         <v>7</v>
@@ -2133,7 +2380,7 @@
       </c>
       <c r="N46" s="11">
         <f>M33-N45</f>
-        <v>-60</v>
+        <v>1300</v>
       </c>
       <c r="O46" s="8" t="s">
         <v>7</v>
@@ -2142,66 +2389,94 @@
         <f>O33-P45</f>
         <v>1550</v>
       </c>
-    </row>
-    <row r="47" spans="1:16" ht="15.6" thickTop="1" thickBot="1">
+      <c r="Q46" s="8" t="s">
+        <v>7</v>
+      </c>
+      <c r="R46" s="11">
+        <f>Q33-R45</f>
+        <v>3161</v>
+      </c>
+      <c r="S46" s="8" t="s">
+        <v>7</v>
+      </c>
+      <c r="T46" s="11">
+        <f>S33-T45</f>
+        <v>1550</v>
+      </c>
+    </row>
+    <row r="47" spans="1:20" ht="15.6" thickTop="1" thickBot="1">
       <c r="A47" s="8" t="s">
         <v>4</v>
       </c>
       <c r="B47" s="11">
         <f>R16+B46</f>
-        <v>2670.0000000000009</v>
+        <v>4080.0000000000009</v>
       </c>
       <c r="C47" s="8" t="s">
         <v>16</v>
       </c>
       <c r="D47" s="11">
         <f>B47+D46</f>
-        <v>4020.0000000000009</v>
+        <v>5430.0000000000009</v>
       </c>
       <c r="E47" s="8" t="s">
         <v>16</v>
       </c>
       <c r="F47" s="11">
         <f>D47+F46</f>
-        <v>4160.0000000000009</v>
+        <v>6930.0000000000009</v>
       </c>
       <c r="G47" s="8" t="s">
         <v>16</v>
       </c>
       <c r="H47" s="11">
         <f>F47+H46</f>
-        <v>5710.0000000000009</v>
+        <v>8480</v>
       </c>
       <c r="I47" s="8" t="s">
         <v>16</v>
       </c>
       <c r="J47" s="11">
         <f>H47+J46</f>
-        <v>5650.0000000000009</v>
+        <v>9780</v>
       </c>
       <c r="K47" s="8" t="s">
         <v>16</v>
       </c>
       <c r="L47" s="11">
         <f>J47+L46</f>
-        <v>7200.0000000000009</v>
+        <v>11330</v>
       </c>
       <c r="M47" s="8" t="s">
         <v>16</v>
       </c>
       <c r="N47" s="11">
         <f>L47+N46</f>
-        <v>7140.0000000000009</v>
+        <v>12630</v>
       </c>
       <c r="O47" s="8" t="s">
         <v>16</v>
       </c>
       <c r="P47" s="11">
         <f>N47+P46</f>
-        <v>8690</v>
-      </c>
-    </row>
-    <row r="48" spans="1:16" ht="15.6" thickTop="1" thickBot="1">
+        <v>14180</v>
+      </c>
+      <c r="Q47" s="8" t="s">
+        <v>16</v>
+      </c>
+      <c r="R47" s="11">
+        <f>P47+R46</f>
+        <v>17341</v>
+      </c>
+      <c r="S47" s="8" t="s">
+        <v>16</v>
+      </c>
+      <c r="T47" s="11">
+        <f>R47+T46</f>
+        <v>18891</v>
+      </c>
+    </row>
+    <row r="48" spans="1:20" ht="15.6" thickTop="1" thickBot="1">
       <c r="B48" t="s">
         <v>19</v>
       </c>
@@ -2226,34 +2501,786 @@
       <c r="P48" t="s">
         <v>20</v>
       </c>
-    </row>
-    <row r="49" spans="5:14" ht="15.6" thickTop="1" thickBot="1">
+      <c r="R48" t="s">
+        <v>20</v>
+      </c>
+      <c r="T48" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="49" spans="1:20" ht="15.6" thickTop="1" thickBot="1">
       <c r="E49" s="8" t="s">
         <v>15</v>
       </c>
       <c r="F49" s="5">
         <f>D46+F46</f>
-        <v>1490</v>
+        <v>2850</v>
       </c>
       <c r="I49" s="8" t="s">
         <v>15</v>
       </c>
       <c r="J49" s="17">
         <f>H46+J46</f>
-        <v>1490</v>
+        <v>2850</v>
       </c>
       <c r="M49" s="8" t="s">
         <v>15</v>
       </c>
       <c r="N49" s="5">
         <f>L46+N46</f>
-        <v>1490</v>
-      </c>
-    </row>
-    <row r="50" spans="5:14" ht="15" thickTop="1"/>
+        <v>2850</v>
+      </c>
+      <c r="Q49" s="8" t="s">
+        <v>15</v>
+      </c>
+      <c r="R49" s="5">
+        <f>P46+R46</f>
+        <v>4711</v>
+      </c>
+    </row>
+    <row r="50" spans="1:20" ht="15" thickTop="1"/>
+    <row r="52" spans="1:20">
+      <c r="C52" s="20" t="s">
+        <v>49</v>
+      </c>
+      <c r="D52" s="21">
+        <v>1300</v>
+      </c>
+    </row>
+    <row r="53" spans="1:20">
+      <c r="C53" s="20" t="s">
+        <v>50</v>
+      </c>
+      <c r="D53" s="21">
+        <v>1880</v>
+      </c>
+    </row>
+    <row r="54" spans="1:20">
+      <c r="C54" s="20" t="s">
+        <v>51</v>
+      </c>
+      <c r="D54" s="21">
+        <v>600</v>
+      </c>
+    </row>
+    <row r="55" spans="1:20">
+      <c r="C55" s="20" t="s">
+        <v>52</v>
+      </c>
+      <c r="D55" s="21">
+        <v>1030</v>
+      </c>
+    </row>
+    <row r="56" spans="1:20">
+      <c r="C56" s="20" t="s">
+        <v>53</v>
+      </c>
+      <c r="D56" s="21">
+        <v>700</v>
+      </c>
+    </row>
+    <row r="57" spans="1:20">
+      <c r="C57" s="20" t="s">
+        <v>54</v>
+      </c>
+      <c r="D57" s="3">
+        <f>SUM(D52:D56)</f>
+        <v>5510</v>
+      </c>
+    </row>
+    <row r="60" spans="1:20" ht="15" thickBot="1">
+      <c r="A60" s="6" t="s">
+        <v>57</v>
+      </c>
+      <c r="B60" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="C60" s="6" t="s">
+        <v>57</v>
+      </c>
+      <c r="D60" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="E60" s="6" t="s">
+        <v>58</v>
+      </c>
+      <c r="F60" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="G60" s="6" t="s">
+        <v>58</v>
+      </c>
+      <c r="H60" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="I60" s="6" t="s">
+        <v>59</v>
+      </c>
+      <c r="J60" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="K60" s="6" t="s">
+        <v>60</v>
+      </c>
+      <c r="L60" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="M60" s="6" t="s">
+        <v>1</v>
+      </c>
+      <c r="N60" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="O60" s="6" t="s">
+        <v>1</v>
+      </c>
+      <c r="P60" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="Q60" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="R60" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="S60" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="T60" s="6" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="61" spans="1:20">
+      <c r="A61" s="10">
+        <v>2000</v>
+      </c>
+      <c r="B61" s="3"/>
+      <c r="C61" s="10">
+        <v>2000</v>
+      </c>
+      <c r="D61" s="3">
+        <v>200</v>
+      </c>
+      <c r="E61" s="10">
+        <v>2000</v>
+      </c>
+      <c r="F61" s="3">
+        <f>(C61+E61)*0.05-D61</f>
+        <v>0</v>
+      </c>
+      <c r="G61" s="10">
+        <v>2000</v>
+      </c>
+      <c r="H61" s="3"/>
+      <c r="I61" s="10">
+        <v>2000</v>
+      </c>
+      <c r="J61" s="3">
+        <v>200</v>
+      </c>
+      <c r="K61" s="10">
+        <v>2000</v>
+      </c>
+      <c r="L61" s="3"/>
+      <c r="M61" s="10">
+        <v>2000</v>
+      </c>
+      <c r="N61" s="3">
+        <f>(K61+M61)*0.05-L61</f>
+        <v>200</v>
+      </c>
+      <c r="O61" s="10">
+        <v>2000</v>
+      </c>
+      <c r="P61" s="3"/>
+      <c r="Q61" s="10">
+        <v>2000</v>
+      </c>
+      <c r="R61" s="3">
+        <f>(O61+Q61)*0.05-P61</f>
+        <v>200</v>
+      </c>
+      <c r="S61" s="10">
+        <v>2000</v>
+      </c>
+      <c r="T61" s="3"/>
+    </row>
+    <row r="62" spans="1:20">
+      <c r="A62" s="9"/>
+      <c r="B62" s="3"/>
+      <c r="C62" s="9"/>
+      <c r="D62" s="3"/>
+      <c r="E62" s="9"/>
+      <c r="F62" s="3">
+        <v>500</v>
+      </c>
+      <c r="G62" s="9" t="s">
+        <v>2</v>
+      </c>
+      <c r="H62" s="3">
+        <v>400</v>
+      </c>
+      <c r="I62" s="9"/>
+      <c r="J62" s="3">
+        <v>500</v>
+      </c>
+      <c r="K62" s="9" t="s">
+        <v>2</v>
+      </c>
+      <c r="L62" s="3">
+        <v>400</v>
+      </c>
+      <c r="M62" s="9"/>
+      <c r="N62" s="3">
+        <v>500</v>
+      </c>
+      <c r="O62" s="9" t="s">
+        <v>2</v>
+      </c>
+      <c r="P62" s="3">
+        <v>400</v>
+      </c>
+      <c r="Q62" s="9"/>
+      <c r="R62" s="3">
+        <v>500</v>
+      </c>
+      <c r="S62" s="9" t="s">
+        <v>2</v>
+      </c>
+      <c r="T62" s="3">
+        <v>400</v>
+      </c>
+    </row>
+    <row r="63" spans="1:20">
+      <c r="A63" s="9"/>
+      <c r="B63" s="3">
+        <v>500</v>
+      </c>
+      <c r="C63" s="9" t="s">
+        <v>2</v>
+      </c>
+      <c r="D63" s="3">
+        <v>400</v>
+      </c>
+      <c r="E63" s="9"/>
+      <c r="F63" s="3"/>
+      <c r="G63" s="9" t="s">
+        <v>41</v>
+      </c>
+      <c r="H63" s="3">
+        <v>50</v>
+      </c>
+      <c r="I63" s="9"/>
+      <c r="J63" s="3"/>
+      <c r="K63" s="9" t="s">
+        <v>41</v>
+      </c>
+      <c r="L63" s="3">
+        <v>50</v>
+      </c>
+      <c r="M63" s="9"/>
+      <c r="N63" s="3"/>
+      <c r="O63" s="9" t="s">
+        <v>41</v>
+      </c>
+      <c r="P63" s="3">
+        <v>50</v>
+      </c>
+      <c r="Q63" s="9"/>
+      <c r="R63" s="3">
+        <v>-2800</v>
+      </c>
+      <c r="S63" s="9" t="s">
+        <v>41</v>
+      </c>
+      <c r="T63" s="3">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="64" spans="1:20">
+      <c r="A64" s="9"/>
+      <c r="B64" s="3"/>
+      <c r="C64" s="9" t="s">
+        <v>5</v>
+      </c>
+      <c r="D64" s="3">
+        <v>50</v>
+      </c>
+      <c r="E64" s="9"/>
+      <c r="F64" s="3"/>
+      <c r="G64" s="9"/>
+      <c r="H64" s="3"/>
+      <c r="I64" s="9"/>
+      <c r="J64" s="3"/>
+      <c r="K64" s="9"/>
+      <c r="L64" s="3"/>
+      <c r="M64" s="9"/>
+      <c r="N64" s="3"/>
+      <c r="O64" s="9"/>
+      <c r="P64" s="3"/>
+      <c r="Q64" s="9"/>
+      <c r="R64" s="3"/>
+      <c r="S64" s="9"/>
+      <c r="T64" s="3"/>
+    </row>
+    <row r="65" spans="1:20">
+      <c r="A65" s="9"/>
+      <c r="B65" s="3"/>
+      <c r="C65" s="9"/>
+      <c r="D65" s="3"/>
+      <c r="E65" s="9"/>
+      <c r="F65" s="3"/>
+      <c r="G65" s="9"/>
+      <c r="H65" s="3"/>
+      <c r="I65" s="9"/>
+      <c r="J65" s="3"/>
+      <c r="K65" s="9"/>
+      <c r="L65" s="3"/>
+      <c r="M65" s="9"/>
+      <c r="N65" s="3"/>
+      <c r="O65" s="9"/>
+      <c r="P65" s="3"/>
+      <c r="Q65" s="9"/>
+      <c r="R65" s="3"/>
+      <c r="S65" s="9"/>
+      <c r="T65" s="3"/>
+    </row>
+    <row r="66" spans="1:20">
+      <c r="A66" s="9"/>
+      <c r="B66" s="3"/>
+      <c r="C66" s="9"/>
+      <c r="D66" s="3"/>
+      <c r="E66" s="9"/>
+      <c r="F66" s="3"/>
+      <c r="G66" s="9"/>
+      <c r="H66" s="3"/>
+      <c r="I66" s="9"/>
+      <c r="J66" s="3"/>
+      <c r="K66" s="9"/>
+      <c r="L66" s="3"/>
+      <c r="M66" s="9"/>
+      <c r="N66" s="3"/>
+      <c r="O66" s="9"/>
+      <c r="P66" s="3"/>
+      <c r="Q66" s="9"/>
+      <c r="R66" s="3"/>
+      <c r="S66" s="9"/>
+      <c r="T66" s="3"/>
+    </row>
+    <row r="67" spans="1:20">
+      <c r="A67" s="9"/>
+      <c r="B67" s="3"/>
+      <c r="C67" s="9"/>
+      <c r="D67" s="3"/>
+      <c r="E67" s="9"/>
+      <c r="F67" s="3"/>
+      <c r="G67" s="9"/>
+      <c r="H67" s="3"/>
+      <c r="I67" s="9"/>
+      <c r="J67" s="3"/>
+      <c r="K67" s="9"/>
+      <c r="L67" s="3"/>
+      <c r="M67" s="9"/>
+      <c r="N67" s="3"/>
+      <c r="O67" s="9"/>
+      <c r="P67" s="3"/>
+      <c r="Q67" s="9"/>
+      <c r="R67" s="3"/>
+      <c r="S67" s="9"/>
+      <c r="T67" s="3"/>
+    </row>
+    <row r="68" spans="1:20">
+      <c r="A68" s="9"/>
+      <c r="B68" s="3"/>
+      <c r="C68" s="9"/>
+      <c r="D68" s="3"/>
+      <c r="E68" s="9"/>
+      <c r="F68" s="3"/>
+      <c r="G68" s="9"/>
+      <c r="H68" s="3"/>
+      <c r="I68" s="9"/>
+      <c r="J68" s="3"/>
+      <c r="K68" s="9"/>
+      <c r="L68" s="3"/>
+      <c r="M68" s="9"/>
+      <c r="N68" s="3"/>
+      <c r="O68" s="9"/>
+      <c r="P68" s="3"/>
+      <c r="Q68" s="9"/>
+      <c r="R68" s="3"/>
+      <c r="S68" s="9"/>
+      <c r="T68" s="3"/>
+    </row>
+    <row r="69" spans="1:20">
+      <c r="A69" s="9"/>
+      <c r="B69" s="3"/>
+      <c r="C69" s="9"/>
+      <c r="D69" s="3"/>
+      <c r="E69" s="9"/>
+      <c r="F69" s="13"/>
+      <c r="G69" s="9"/>
+      <c r="H69" s="3"/>
+      <c r="I69" s="9"/>
+      <c r="J69" s="3"/>
+      <c r="K69" s="9"/>
+      <c r="L69" s="3"/>
+      <c r="M69" s="9"/>
+      <c r="N69" s="3"/>
+      <c r="O69" s="9"/>
+      <c r="P69" s="3"/>
+      <c r="Q69" s="9"/>
+      <c r="R69" s="3"/>
+      <c r="S69" s="9"/>
+      <c r="T69" s="3"/>
+    </row>
+    <row r="70" spans="1:20">
+      <c r="A70" s="9"/>
+      <c r="B70" s="3"/>
+      <c r="C70" s="9"/>
+      <c r="D70" s="3"/>
+      <c r="E70" s="9"/>
+      <c r="F70" s="3"/>
+      <c r="G70" s="9"/>
+      <c r="H70" s="3"/>
+      <c r="I70" s="9"/>
+      <c r="J70" s="3"/>
+      <c r="K70" s="9"/>
+      <c r="L70" s="3"/>
+      <c r="M70" s="9"/>
+      <c r="N70" s="3"/>
+      <c r="O70" s="9"/>
+      <c r="P70" s="3"/>
+      <c r="Q70" s="9"/>
+      <c r="R70" s="3"/>
+      <c r="S70" s="9"/>
+      <c r="T70" s="3"/>
+    </row>
+    <row r="71" spans="1:20">
+      <c r="A71" s="9"/>
+      <c r="B71" s="3"/>
+      <c r="C71" s="9"/>
+      <c r="D71" s="3"/>
+      <c r="E71" s="9"/>
+      <c r="F71" s="3"/>
+      <c r="G71" s="9"/>
+      <c r="H71" s="3"/>
+      <c r="I71" s="9"/>
+      <c r="J71" s="3"/>
+      <c r="K71" s="9"/>
+      <c r="L71" s="3"/>
+      <c r="M71" s="9"/>
+      <c r="N71" s="3"/>
+      <c r="O71" s="9"/>
+      <c r="P71" s="3"/>
+      <c r="Q71" s="9"/>
+      <c r="R71" s="3"/>
+      <c r="S71" s="9"/>
+      <c r="T71" s="3"/>
+    </row>
+    <row r="72" spans="1:20">
+      <c r="A72" s="9"/>
+      <c r="B72" s="3"/>
+      <c r="C72" s="9"/>
+      <c r="D72" s="3"/>
+      <c r="E72" s="9"/>
+      <c r="F72" s="3"/>
+      <c r="G72" s="9"/>
+      <c r="H72" s="3"/>
+      <c r="I72" s="9"/>
+      <c r="J72" s="3"/>
+      <c r="K72" s="9"/>
+      <c r="L72" s="3"/>
+      <c r="M72" s="9"/>
+      <c r="N72" s="3"/>
+      <c r="O72" s="9"/>
+      <c r="P72" s="3"/>
+      <c r="Q72" s="9"/>
+      <c r="R72" s="3"/>
+      <c r="S72" s="9"/>
+      <c r="T72" s="3"/>
+    </row>
+    <row r="73" spans="1:20" ht="15" thickBot="1">
+      <c r="A73" s="8" t="s">
+        <v>6</v>
+      </c>
+      <c r="B73" s="12">
+        <f>SUM(B61:B72)</f>
+        <v>500</v>
+      </c>
+      <c r="C73" s="8" t="s">
+        <v>6</v>
+      </c>
+      <c r="D73" s="12">
+        <f>SUM(D61:D72)</f>
+        <v>650</v>
+      </c>
+      <c r="E73" s="8" t="s">
+        <v>6</v>
+      </c>
+      <c r="F73" s="12">
+        <f>SUM(F61:F72)</f>
+        <v>500</v>
+      </c>
+      <c r="G73" s="8" t="s">
+        <v>6</v>
+      </c>
+      <c r="H73" s="12">
+        <f>SUM(H61:H72)</f>
+        <v>450</v>
+      </c>
+      <c r="I73" s="8" t="s">
+        <v>6</v>
+      </c>
+      <c r="J73" s="12">
+        <f>SUM(J61:J72)</f>
+        <v>700</v>
+      </c>
+      <c r="K73" s="8" t="s">
+        <v>6</v>
+      </c>
+      <c r="L73" s="12">
+        <f>SUM(L61:L72)</f>
+        <v>450</v>
+      </c>
+      <c r="M73" s="8" t="s">
+        <v>6</v>
+      </c>
+      <c r="N73" s="12">
+        <f>SUM(N61:N72)</f>
+        <v>700</v>
+      </c>
+      <c r="O73" s="8" t="s">
+        <v>6</v>
+      </c>
+      <c r="P73" s="12">
+        <f>SUM(P61:P72)</f>
+        <v>450</v>
+      </c>
+      <c r="Q73" s="8" t="s">
+        <v>6</v>
+      </c>
+      <c r="R73" s="12">
+        <f>SUM(R61:R72)</f>
+        <v>-2100</v>
+      </c>
+      <c r="S73" s="8" t="s">
+        <v>6</v>
+      </c>
+      <c r="T73" s="12">
+        <f>SUM(T61:T72)</f>
+        <v>450</v>
+      </c>
+    </row>
+    <row r="74" spans="1:20" ht="15.6" thickTop="1" thickBot="1">
+      <c r="A74" s="8" t="s">
+        <v>7</v>
+      </c>
+      <c r="B74" s="11">
+        <f>A61-B73</f>
+        <v>1500</v>
+      </c>
+      <c r="C74" s="8" t="s">
+        <v>7</v>
+      </c>
+      <c r="D74" s="11">
+        <f>C61-D73</f>
+        <v>1350</v>
+      </c>
+      <c r="E74" s="8" t="s">
+        <v>7</v>
+      </c>
+      <c r="F74" s="11">
+        <f>E61-F73</f>
+        <v>1500</v>
+      </c>
+      <c r="G74" s="8" t="s">
+        <v>7</v>
+      </c>
+      <c r="H74" s="11">
+        <f>G61-H73</f>
+        <v>1550</v>
+      </c>
+      <c r="I74" s="8" t="s">
+        <v>7</v>
+      </c>
+      <c r="J74" s="11">
+        <f>I61-J73</f>
+        <v>1300</v>
+      </c>
+      <c r="K74" s="8" t="s">
+        <v>7</v>
+      </c>
+      <c r="L74" s="11">
+        <f>K61-L73</f>
+        <v>1550</v>
+      </c>
+      <c r="M74" s="8" t="s">
+        <v>7</v>
+      </c>
+      <c r="N74" s="11">
+        <f>M61-N73</f>
+        <v>1300</v>
+      </c>
+      <c r="O74" s="8" t="s">
+        <v>7</v>
+      </c>
+      <c r="P74" s="11">
+        <f>O61-P73</f>
+        <v>1550</v>
+      </c>
+      <c r="Q74" s="8" t="s">
+        <v>7</v>
+      </c>
+      <c r="R74" s="11">
+        <f>Q61-R73</f>
+        <v>4100</v>
+      </c>
+      <c r="S74" s="8" t="s">
+        <v>7</v>
+      </c>
+      <c r="T74" s="11">
+        <f>S61-T73</f>
+        <v>1550</v>
+      </c>
+    </row>
+    <row r="75" spans="1:20" ht="15.6" thickTop="1" thickBot="1">
+      <c r="A75" s="8" t="s">
+        <v>4</v>
+      </c>
+      <c r="B75" s="11">
+        <f>T47+B74</f>
+        <v>20391</v>
+      </c>
+      <c r="C75" s="8" t="s">
+        <v>16</v>
+      </c>
+      <c r="D75" s="11">
+        <f>B75+D74</f>
+        <v>21741</v>
+      </c>
+      <c r="E75" s="8" t="s">
+        <v>16</v>
+      </c>
+      <c r="F75" s="11">
+        <f>D75+F74</f>
+        <v>23241</v>
+      </c>
+      <c r="G75" s="8" t="s">
+        <v>16</v>
+      </c>
+      <c r="H75" s="11">
+        <f>F75+H74</f>
+        <v>24791</v>
+      </c>
+      <c r="I75" s="8" t="s">
+        <v>16</v>
+      </c>
+      <c r="J75" s="11">
+        <f>H75+J74</f>
+        <v>26091</v>
+      </c>
+      <c r="K75" s="8" t="s">
+        <v>16</v>
+      </c>
+      <c r="L75" s="11">
+        <f>J75+L74</f>
+        <v>27641</v>
+      </c>
+      <c r="M75" s="8" t="s">
+        <v>16</v>
+      </c>
+      <c r="N75" s="11">
+        <f>L75+N74</f>
+        <v>28941</v>
+      </c>
+      <c r="O75" s="8" t="s">
+        <v>16</v>
+      </c>
+      <c r="P75" s="11">
+        <f>N75+P74</f>
+        <v>30491</v>
+      </c>
+      <c r="Q75" s="8" t="s">
+        <v>16</v>
+      </c>
+      <c r="R75" s="11">
+        <f>P75+R74</f>
+        <v>34591</v>
+      </c>
+      <c r="S75" s="8" t="s">
+        <v>16</v>
+      </c>
+      <c r="T75" s="11">
+        <f>R75+T74</f>
+        <v>36141</v>
+      </c>
+    </row>
+    <row r="76" spans="1:20" ht="15.6" thickTop="1" thickBot="1">
+      <c r="B76" t="s">
+        <v>19</v>
+      </c>
+      <c r="D76" t="s">
+        <v>19</v>
+      </c>
+      <c r="F76" t="s">
+        <v>19</v>
+      </c>
+      <c r="H76" t="s">
+        <v>19</v>
+      </c>
+      <c r="J76" t="s">
+        <v>19</v>
+      </c>
+      <c r="L76" t="s">
+        <v>19</v>
+      </c>
+      <c r="N76" t="s">
+        <v>20</v>
+      </c>
+      <c r="P76" t="s">
+        <v>20</v>
+      </c>
+      <c r="R76" t="s">
+        <v>20</v>
+      </c>
+      <c r="T76" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="77" spans="1:20" ht="15.6" thickTop="1" thickBot="1">
+      <c r="E77" s="8" t="s">
+        <v>15</v>
+      </c>
+      <c r="F77" s="5">
+        <f>D74+F74</f>
+        <v>2850</v>
+      </c>
+      <c r="I77" s="8" t="s">
+        <v>15</v>
+      </c>
+      <c r="J77" s="17">
+        <f>H74+J74</f>
+        <v>2850</v>
+      </c>
+      <c r="M77" s="8" t="s">
+        <v>15</v>
+      </c>
+      <c r="N77" s="5">
+        <f>L74+N74</f>
+        <v>2850</v>
+      </c>
+      <c r="Q77" s="8" t="s">
+        <v>15</v>
+      </c>
+      <c r="R77" s="5">
+        <f>P74+R74</f>
+        <v>5650</v>
+      </c>
+    </row>
+    <row r="78" spans="1:20" ht="15" thickTop="1"/>
   </sheetData>
   <conditionalFormatting sqref="L19">
-    <cfRule type="dataBar" priority="54">
+    <cfRule type="dataBar" priority="62">
       <dataBar>
         <cfvo type="min" val="0"/>
         <cfvo type="max" val="0"/>
@@ -2262,26 +3289,60 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D15:D16 F15:F16 H15:H16 D46:D47 F46:F47 H46:H47 B47">
-    <cfRule type="cellIs" dxfId="5" priority="49" operator="lessThan">
+    <cfRule type="cellIs" dxfId="13" priority="57" operator="lessThan">
       <formula>0</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="4" priority="50" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="12" priority="58" operator="greaterThan">
       <formula>500</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="3" priority="51" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="11" priority="59" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J15:J16 J46:J47">
-    <cfRule type="cellIs" dxfId="2" priority="14" operator="lessThan">
+    <cfRule type="cellIs" dxfId="10" priority="22" operator="lessThan">
       <formula>0</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="1" priority="15" operator="lessThan">
+    <cfRule type="cellIs" dxfId="9" priority="23" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="L15:L16 N15:N16 P15:P16 R15:R16 L46:L47 N46:N47 P46:P47">
-    <cfRule type="cellIs" dxfId="0" priority="13" operator="lessThan">
+    <cfRule type="cellIs" dxfId="8" priority="21" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="R46:R47 T46:T47">
+    <cfRule type="cellIs" dxfId="7" priority="8" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D74:D75 F74:F75 H74:H75 B75">
+    <cfRule type="cellIs" dxfId="6" priority="5" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="5" priority="6" operator="greaterThan">
+      <formula>500</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="4" priority="7" operator="greaterThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="J74:J75">
+    <cfRule type="cellIs" dxfId="3" priority="3" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="2" priority="4" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="L74:L75 N74:N75 P74:P75">
+    <cfRule type="cellIs" dxfId="1" priority="2" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="R74:R75 T74:T75">
+    <cfRule type="cellIs" dxfId="0" priority="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
